--- a/term work/Testing Documents/User Acceptance Testing AI.xlsx
+++ b/term work/Testing Documents/User Acceptance Testing AI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harra\Desktop\Term-3-AI\Testing Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harra\Desktop\Term-3-AI\term work\Testing Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250D7C7F-C973-47C2-8845-CDB3284DE21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93013454-7491-4140-9A06-6F03B65F9A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8478DEDF-7F04-4077-B68D-9AFD543336D7}"/>
   </bookViews>
@@ -809,7 +809,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -851,32 +851,26 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1197,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2178B82F-BB68-4BFB-9B21-BA48D972587D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="20" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="D14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1224,44 +1218,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="1:17" ht="29">
       <c r="A3" s="9" t="s">
@@ -1326,34 +1320,34 @@
       <c r="C4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N4" s="4" t="s">
@@ -1377,34 +1371,34 @@
       <c r="C5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N5" s="4" t="s">
@@ -1428,34 +1422,34 @@
       <c r="C6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N6" s="4" t="s">
@@ -1479,34 +1473,34 @@
       <c r="C7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="M7" s="6" t="s">
         <v>85</v>
       </c>
       <c r="N7" s="8" t="s">
@@ -1532,34 +1526,34 @@
       <c r="C8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="6" t="s">
         <v>85</v>
       </c>
       <c r="N8" s="4" t="s">
@@ -1585,34 +1579,34 @@
       <c r="C9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="15" t="s">
         <v>68</v>
       </c>
       <c r="N9" s="8" t="s">
@@ -1638,34 +1632,34 @@
       <c r="C10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="6" t="s">
         <v>71</v>
       </c>
       <c r="N10" s="4" t="s">
@@ -1691,34 +1685,34 @@
       <c r="C11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="L11" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="M11" s="15" t="s">
         <v>69</v>
       </c>
       <c r="N11" s="8" t="s">
@@ -1744,34 +1738,34 @@
       <c r="C12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="6" t="s">
         <v>70</v>
       </c>
       <c r="N12" s="4" t="s">
@@ -1797,34 +1791,34 @@
       <c r="C13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="M13" s="15" t="s">
         <v>99</v>
       </c>
       <c r="N13" s="8" t="s">
@@ -1850,34 +1844,34 @@
       <c r="C14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="M14" s="15" t="s">
         <v>99</v>
       </c>
       <c r="N14" s="4" t="s">
@@ -1903,34 +1897,34 @@
       <c r="C15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="M15" s="15" t="s">
         <v>113</v>
       </c>
       <c r="N15" s="4" t="s">
@@ -1954,34 +1948,34 @@
       <c r="C16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="M16" s="19" t="s">
+      <c r="M16" s="15" t="s">
         <v>123</v>
       </c>
       <c r="N16" s="4" t="s">
@@ -2005,34 +1999,34 @@
       <c r="C17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="M17" s="19" t="s">
+      <c r="M17" s="15" t="s">
         <v>124</v>
       </c>
       <c r="N17" s="4" t="s">
@@ -2056,34 +2050,34 @@
       <c r="C18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="L18" s="18" t="s">
+      <c r="L18" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="M18" s="19" t="s">
+      <c r="M18" s="15" t="s">
         <v>136</v>
       </c>
       <c r="N18" s="4" t="s">
@@ -2107,34 +2101,34 @@
       <c r="C19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="M19" s="19" t="s">
+      <c r="M19" s="15" t="s">
         <v>135</v>
       </c>
       <c r="N19" s="4" t="s">
@@ -2148,7 +2142,7 @@
       </c>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" ht="65">
+    <row r="20" spans="1:17" ht="100.5" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -2158,34 +2152,34 @@
       <c r="C20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="18" t="s">
+      <c r="K20" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="M20" s="19" t="s">
+      <c r="M20" s="15" t="s">
         <v>133</v>
       </c>
       <c r="N20" s="4" t="s">
@@ -2209,34 +2203,34 @@
       <c r="C21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="J21" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="L21" s="19" t="s">
+      <c r="L21" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="M21" s="19" t="s">
+      <c r="M21" s="15" t="s">
         <v>111</v>
       </c>
       <c r="N21" s="4" t="s">
@@ -2280,26 +2274,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="df9135bc-a39e-4069-9ffb-360f93402c62" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="48ec3ddf-2ef2-4a9b-9631-68f5ec9f82f4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001307C8898657B747A885C613A3905C21" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a70dae84b08b850ca1b9dc573e0a98b1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="48ec3ddf-2ef2-4a9b-9631-68f5ec9f82f4" xmlns:ns3="df9135bc-a39e-4069-9ffb-360f93402c62" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="86d8be85eda5fce5f393455db633cb52" ns2:_="" ns3:_="">
     <xsd:import namespace="48ec3ddf-2ef2-4a9b-9631-68f5ec9f82f4"/>
@@ -2514,26 +2488,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3C54FB-5819-49BB-95E2-CB49BE3A27CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="df9135bc-a39e-4069-9ffb-360f93402c62"/>
-    <ds:schemaRef ds:uri="48ec3ddf-2ef2-4a9b-9631-68f5ec9f82f4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A125CC1-1EA7-46BA-BEC6-11D01A40C3E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="df9135bc-a39e-4069-9ffb-360f93402c62" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="48ec3ddf-2ef2-4a9b-9631-68f5ec9f82f4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A83E6FF4-37B0-4CA8-8EA2-394776380AFF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2550,4 +2525,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A125CC1-1EA7-46BA-BEC6-11D01A40C3E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3C54FB-5819-49BB-95E2-CB49BE3A27CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="df9135bc-a39e-4069-9ffb-360f93402c62"/>
+    <ds:schemaRef ds:uri="48ec3ddf-2ef2-4a9b-9631-68f5ec9f82f4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>